--- a/Excels/Master_data.xlsx
+++ b/Excels/Master_data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Shift_types" sheetId="1" r:id="rId1"/>
-    <sheet name="Branch_types" sheetId="2" r:id="rId2"/>
-    <sheet name="Vendor" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Branch_types" sheetId="2" r:id="rId3"/>
+    <sheet name="Vendor_types" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Shift_Name</t>
   </si>
@@ -81,17 +82,62 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>Night_1</t>
-  </si>
-  <si>
-    <t>Head two</t>
+    <t>Vendor_Name</t>
+  </si>
+  <si>
+    <t>Mobile_Number</t>
+  </si>
+  <si>
+    <t>Vendor_Id</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Vendor_Type</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ORG_02</t>
+  </si>
+  <si>
+    <t>Orange@gmail.com</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>RNIT</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Orange Corp_1</t>
+  </si>
+  <si>
+    <t>Orange Corp_2</t>
+  </si>
+  <si>
+    <t>9916387574</t>
+  </si>
+  <si>
+    <t>Night_4</t>
+  </si>
+  <si>
+    <t>Head two_3</t>
+  </si>
+  <si>
+    <t>Orange Corp_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +151,22 @@
       <color rgb="FF6A3E3E"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,17 +207,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,7 +527,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,7 +569,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -565,10 +631,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +677,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -641,19 +719,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Excels/Master_data.xlsx
+++ b/Excels/Master_data.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Shift_types" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="Branch_types" sheetId="2" r:id="rId3"/>
     <sheet name="Vendor_types" sheetId="3" r:id="rId4"/>
+    <sheet name="Employee_Grade" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Shift_Name</t>
   </si>
@@ -131,13 +133,55 @@
   </si>
   <si>
     <t>Orange Corp_3</t>
+  </si>
+  <si>
+    <t>Grade_Name</t>
+  </si>
+  <si>
+    <t>City_Cat_0</t>
+  </si>
+  <si>
+    <t>Food_Expenses_0</t>
+  </si>
+  <si>
+    <t>Travel_Expenses_0</t>
+  </si>
+  <si>
+    <t>Other_Expenses_0</t>
+  </si>
+  <si>
+    <t>Metro City</t>
+  </si>
+  <si>
+    <t>Grade A</t>
+  </si>
+  <si>
+    <t>Grade B</t>
+  </si>
+  <si>
+    <t>cityCategory</t>
+  </si>
+  <si>
+    <t>foodExpenses</t>
+  </si>
+  <si>
+    <t>travelExpenses</t>
+  </si>
+  <si>
+    <t>otherExpenses</t>
+  </si>
+  <si>
+    <t>gradeName</t>
+  </si>
+  <si>
+    <t>Urban City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +212,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -219,6 +275,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -530,18 +591,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -593,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -603,7 +664,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -613,7 +674,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -635,7 +696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -649,16 +710,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -675,7 +736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -692,21 +753,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -723,21 +784,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -760,7 +821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -783,7 +844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -806,7 +867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -829,7 +890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -847,4 +908,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9">
+        <v>100</v>
+      </c>
+      <c r="D2" s="9">
+        <v>200</v>
+      </c>
+      <c r="E2" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9">
+        <v>150</v>
+      </c>
+      <c r="D3" s="9">
+        <v>250</v>
+      </c>
+      <c r="E3" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9">
+        <v>110</v>
+      </c>
+      <c r="D4" s="9">
+        <v>210</v>
+      </c>
+      <c r="E4" s="9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="9">
+        <v>160</v>
+      </c>
+      <c r="D5" s="9">
+        <v>260</v>
+      </c>
+      <c r="E5" s="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9">
+        <v>100</v>
+      </c>
+      <c r="D2" s="9">
+        <v>200</v>
+      </c>
+      <c r="E2" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9">
+        <v>150</v>
+      </c>
+      <c r="D3" s="9">
+        <v>250</v>
+      </c>
+      <c r="E3" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9">
+        <v>110</v>
+      </c>
+      <c r="D4" s="9">
+        <v>210</v>
+      </c>
+      <c r="E4" s="9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="9">
+        <v>160</v>
+      </c>
+      <c r="D5" s="9">
+        <v>260</v>
+      </c>
+      <c r="E5" s="9">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excels/Master_data.xlsx
+++ b/Excels/Master_data.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Shift_types" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Branch_types" sheetId="2" r:id="rId3"/>
-    <sheet name="Vendor_types" sheetId="3" r:id="rId4"/>
-    <sheet name="Employee_Grade" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Branch_types" sheetId="2" r:id="rId2"/>
+    <sheet name="Vendor_types" sheetId="3" r:id="rId3"/>
+    <sheet name="Employee_Grade" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Shift_Name</t>
   </si>
@@ -175,6 +174,15 @@
   </si>
   <si>
     <t>Urban City</t>
+  </si>
+  <si>
+    <t>Grade E</t>
+  </si>
+  <si>
+    <t>Grade F</t>
+  </si>
+  <si>
+    <t>Other City</t>
   </si>
 </sst>
 </file>
@@ -588,7 +596,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +605,7 @@
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -691,18 +699,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -780,22 +776,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,7 +907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1046,24 +1043,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
@@ -1079,14 +1081,34 @@
       <c r="E1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>43</v>
@@ -1100,49 +1122,69 @@
       <c r="E2" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="9">
+        <v>150</v>
+      </c>
+      <c r="H2" s="9">
+        <v>250</v>
+      </c>
+      <c r="I2" s="9">
+        <v>350</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="9">
+        <v>150</v>
+      </c>
+      <c r="L2" s="9">
+        <v>250</v>
+      </c>
+      <c r="M2" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9">
+        <v>110</v>
+      </c>
+      <c r="D3" s="9">
+        <v>210</v>
+      </c>
+      <c r="E3" s="9">
+        <v>310</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="9">
-        <v>150</v>
-      </c>
-      <c r="D3" s="9">
-        <v>250</v>
-      </c>
-      <c r="E3" s="9">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9">
-        <v>110</v>
-      </c>
-      <c r="D4" s="9">
-        <v>210</v>
-      </c>
-      <c r="E4" s="9">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="G3" s="9">
         <v>160</v>
       </c>
-      <c r="D5" s="9">
+      <c r="H3" s="9">
         <v>260</v>
       </c>
-      <c r="E5" s="9">
+      <c r="I3" s="9">
+        <v>360</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="9">
+        <v>160</v>
+      </c>
+      <c r="L3" s="9">
+        <v>260</v>
+      </c>
+      <c r="M3" s="9">
         <v>360</v>
       </c>
     </row>
